--- a/data/ode_time_vs_problem_size.xlsx
+++ b/data/ode_time_vs_problem_size.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenghuang0302/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenghuang0302/Desktop/sorting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -118,6 +118,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Solution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time vs. problem size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -357,11 +387,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="370870112"/>
-        <c:axId val="370824336"/>
+        <c:axId val="-72049456"/>
+        <c:axId val="-71979584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="370870112"/>
+        <c:axId val="-72049456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -381,6 +411,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -417,12 +448,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370824336"/>
+        <c:crossAx val="-71979584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370824336"/>
+        <c:axId val="-71979584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,7 +510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370870112"/>
+        <c:crossAx val="-72049456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1386,7 +1417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
